--- a/catalog/app/utils/spreadsheets/mocks/spreadsheets.bilbo.xlsx
+++ b/catalog/app/utils/spreadsheets/mocks/spreadsheets.bilbo.xlsx
@@ -184,18 +184,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="8"/>
@@ -236,7 +236,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>361857</v>
+        <v>33138</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
